--- a/Prix_metre/dataset_inflation_retravaillé.xlsx
+++ b/Prix_metre/dataset_inflation_retravaillé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maila\Documents\Centrale Nantes\EI2\INFOIA\STASC\Data_Challenge\STASC\Prix_metre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F6EC9C-D110-4044-AC6D-49E9C986438F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3957C0C-0D11-440B-9079-87FE64E46BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A3F74DC-D605-4B64-88B0-B13BA782DA19}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>T4 2019</t>
   </si>
   <si>
-    <t>T2 2021</t>
-  </si>
-  <si>
     <t>ratio_inflation</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>numéro de référence</t>
+  </si>
+  <si>
+    <t>T4 2021</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +151,11 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -189,16 +194,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B2C58B3B-385C-4CE5-9907-7E6B697DFCB1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165347D6-084C-4A64-B7B9-A0F2591BBD01}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,22 +541,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -548,20 +564,20 @@
         <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2">
         <v>129.30000000000001</v>
       </c>
-      <c r="E2" s="2">
-        <v>133.80000000000001</v>
+      <c r="E2" s="3">
+        <v>133.30000000000001</v>
       </c>
       <c r="F2">
-        <f>E2/D2</f>
-        <v>1.0348027842227379</v>
+        <f t="shared" ref="F2:F26" si="0">E2/D2</f>
+        <v>1.0309358081979891</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -569,20 +585,20 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2">
         <v>103.4</v>
       </c>
-      <c r="E3" s="2">
-        <v>110.4</v>
+      <c r="E3" s="3">
+        <v>112.7</v>
       </c>
       <c r="F3">
         <f>E3/D3</f>
-        <v>1.067698259187621</v>
+        <v>1.0899419729206963</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -590,20 +606,20 @@
         <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>108.3</v>
       </c>
-      <c r="E4" s="2">
-        <v>115.7</v>
+      <c r="E4" s="3">
+        <v>116.5</v>
       </c>
       <c r="F4">
         <f>E4/D4</f>
-        <v>1.0683287165281625</v>
+        <v>1.0757156048014773</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -611,20 +627,20 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2">
         <v>104.3</v>
       </c>
-      <c r="E5" s="2">
-        <v>111.7</v>
+      <c r="E5" s="3">
+        <v>113.8</v>
       </c>
       <c r="F5">
-        <f>E5/D5</f>
-        <v>1.0709491850431447</v>
+        <f t="shared" si="0"/>
+        <v>1.0910834132310643</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -632,20 +648,20 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2">
         <v>118.2</v>
       </c>
-      <c r="E6" s="2">
-        <v>127.7</v>
+      <c r="E6" s="3">
+        <v>127</v>
       </c>
       <c r="F6">
-        <f>E6/D6</f>
-        <v>1.0803722504230118</v>
+        <f t="shared" si="0"/>
+        <v>1.0744500846023688</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -653,20 +669,20 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
         <v>116.9</v>
       </c>
-      <c r="E7" s="2">
-        <v>128</v>
+      <c r="E7" s="3">
+        <v>129.4</v>
       </c>
       <c r="F7">
-        <f>E7/D7</f>
-        <v>1.0949529512403764</v>
+        <f t="shared" si="0"/>
+        <v>1.1069289991445681</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -674,20 +690,20 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>114.6</v>
       </c>
-      <c r="E8" s="2">
-        <v>124.8</v>
+      <c r="E8" s="3">
+        <v>126</v>
       </c>
       <c r="F8">
-        <f>E8/D8</f>
-        <v>1.0890052356020943</v>
+        <f t="shared" si="0"/>
+        <v>1.0994764397905761</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -695,20 +711,20 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2">
         <v>105.2</v>
       </c>
-      <c r="E9" s="2">
-        <v>113</v>
+      <c r="E9" s="4">
+        <v>115</v>
       </c>
       <c r="F9">
-        <f>E9/D9</f>
-        <v>1.0741444866920151</v>
+        <f t="shared" si="0"/>
+        <v>1.0931558935361216</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -716,20 +732,20 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
         <v>105</v>
       </c>
-      <c r="E10" s="2">
-        <v>114.7</v>
+      <c r="E10" s="5">
+        <v>119.3</v>
       </c>
       <c r="F10">
-        <f>E10/D10</f>
-        <v>1.0923809523809525</v>
+        <f t="shared" si="0"/>
+        <v>1.1361904761904762</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -737,20 +753,20 @@
         <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2">
         <v>107.4</v>
       </c>
-      <c r="E11" s="2">
-        <v>115.5</v>
+      <c r="E11" s="5">
+        <v>122.8</v>
       </c>
       <c r="F11">
-        <f>E11/D11</f>
-        <v>1.0754189944134078</v>
+        <f t="shared" si="0"/>
+        <v>1.1433891992551211</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -758,20 +774,20 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
         <v>106.9</v>
       </c>
-      <c r="E12" s="2">
-        <v>115.5</v>
+      <c r="E12" s="5">
+        <v>120.8</v>
       </c>
       <c r="F12">
-        <f>E12/D12</f>
-        <v>1.0804490177736201</v>
+        <f t="shared" si="0"/>
+        <v>1.1300280636108513</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -779,20 +795,20 @@
         <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2">
         <v>113.5</v>
       </c>
-      <c r="E13" s="2">
-        <v>124.6</v>
+      <c r="E13" s="5">
+        <v>131.80000000000001</v>
       </c>
       <c r="F13">
-        <f>E13/D13</f>
-        <v>1.0977973568281938</v>
+        <f t="shared" si="0"/>
+        <v>1.1612334801762116</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -800,20 +816,20 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2">
         <v>109.5</v>
       </c>
-      <c r="E14" s="2">
-        <v>119.9</v>
+      <c r="E14" s="5">
+        <v>124</v>
       </c>
       <c r="F14">
-        <f>E14/D14</f>
-        <v>1.0949771689497718</v>
+        <f t="shared" si="0"/>
+        <v>1.1324200913242009</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -821,20 +837,20 @@
         <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2">
         <v>110.9</v>
       </c>
-      <c r="E15" s="2">
-        <v>121.9</v>
+      <c r="E15" s="5">
+        <v>127.7</v>
       </c>
       <c r="F15">
-        <f>E15/D15</f>
-        <v>1.0991884580703337</v>
+        <f t="shared" si="0"/>
+        <v>1.1514878268710549</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -842,308 +858,308 @@
         <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
       </c>
       <c r="D16" s="2">
         <v>106.9</v>
       </c>
-      <c r="E16" s="2">
-        <v>116.2</v>
+      <c r="E16" s="5">
+        <v>120.1</v>
       </c>
       <c r="F16">
-        <f>E16/D16</f>
-        <v>1.0869971936389149</v>
+        <f t="shared" si="0"/>
+        <v>1.1234798877455565</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
         <v>106.1</v>
       </c>
-      <c r="E17" s="2">
-        <v>113.2</v>
+      <c r="E17" s="6">
+        <v>117.9</v>
       </c>
       <c r="F17">
-        <f>E17/D17</f>
-        <v>1.0669180018850142</v>
+        <f t="shared" si="0"/>
+        <v>1.1112158341187559</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2">
         <v>109.1</v>
       </c>
-      <c r="E18" s="2">
-        <v>118.2</v>
+      <c r="E18" s="6">
+        <v>125.3</v>
       </c>
       <c r="F18">
-        <f>E18/D18</f>
-        <v>1.083409715857012</v>
+        <f t="shared" si="0"/>
+        <v>1.1484876260311641</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="2">
         <v>108.7</v>
       </c>
-      <c r="E19" s="2">
-        <v>119.3</v>
+      <c r="E19" s="7">
+        <v>125</v>
       </c>
       <c r="F19">
-        <f>E19/D19</f>
-        <v>1.0975160993560258</v>
+        <f t="shared" si="0"/>
+        <v>1.1499540018399264</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" s="2">
         <v>114.8</v>
       </c>
-      <c r="E20" s="2">
-        <v>127.9</v>
+      <c r="E20" s="8">
+        <v>131</v>
       </c>
       <c r="F20">
-        <f>E20/D20</f>
-        <v>1.1141114982578397</v>
+        <f t="shared" si="0"/>
+        <v>1.1411149825783973</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2">
         <v>112.7</v>
       </c>
-      <c r="E21" s="2">
-        <v>123.5</v>
+      <c r="E21" s="8">
+        <v>132.4</v>
       </c>
       <c r="F21">
-        <f>E21/D21</f>
-        <v>1.095829636202307</v>
+        <f t="shared" si="0"/>
+        <v>1.1748003549245785</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="2">
         <v>137.6</v>
       </c>
-      <c r="E22" s="2">
-        <v>153.69999999999999</v>
+      <c r="E22" s="8">
+        <v>153.1</v>
       </c>
       <c r="F22">
-        <f>E22/D22</f>
-        <v>1.1170058139534884</v>
+        <f t="shared" si="0"/>
+        <v>1.1126453488372092</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="2">
         <v>106</v>
       </c>
-      <c r="E23" s="2">
-        <v>117.7</v>
+      <c r="E23" s="9">
+        <v>123</v>
       </c>
       <c r="F23">
-        <f>E23/D23</f>
-        <v>1.1103773584905661</v>
+        <f t="shared" si="0"/>
+        <v>1.1603773584905661</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2">
         <v>106.6</v>
       </c>
-      <c r="E24" s="2">
-        <v>116</v>
+      <c r="E24" s="9">
+        <v>119.6</v>
       </c>
       <c r="F24">
-        <f>E24/D24</f>
-        <v>1.0881801125703565</v>
+        <f t="shared" si="0"/>
+        <v>1.1219512195121952</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D25" s="2">
         <v>111</v>
       </c>
-      <c r="E25" s="2">
-        <v>124.3</v>
+      <c r="E25" s="9">
+        <v>126.7</v>
       </c>
       <c r="F25">
-        <f>E25/D25</f>
-        <v>1.1198198198198197</v>
+        <f t="shared" si="0"/>
+        <v>1.1414414414414416</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="s">
         <v>15</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
       </c>
       <c r="D26" s="2">
         <v>111.3</v>
       </c>
-      <c r="E26" s="2">
-        <v>123.1</v>
+      <c r="E26" s="10">
+        <v>128.5</v>
       </c>
       <c r="F26">
-        <f>E26/D26</f>
-        <v>1.106019766397125</v>
+        <f t="shared" si="0"/>
+        <v>1.1545372866127583</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2">
         <v>110.8</v>
       </c>
-      <c r="E27" s="2">
-        <v>122</v>
+      <c r="E27" s="10">
+        <v>128.9</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F31" si="0">E27/D27</f>
-        <v>1.1010830324909748</v>
+        <f t="shared" ref="F27:F31" si="1">E27/D27</f>
+        <v>1.1633574007220218</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2">
         <v>111.9</v>
       </c>
-      <c r="E28" s="2">
-        <v>123.7</v>
+      <c r="E28" s="11">
+        <v>129</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>1.1054512957998213</v>
+        <f t="shared" si="1"/>
+        <v>1.1528150134048256</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2">
         <v>113.5</v>
       </c>
-      <c r="E29" s="2">
-        <v>126.1</v>
+      <c r="E29" s="11">
+        <v>131.80000000000001</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1.1110132158590307</v>
+        <f t="shared" si="1"/>
+        <v>1.1612334801762116</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2">
         <v>108.9</v>
       </c>
-      <c r="E30" s="2">
-        <v>119.6</v>
+      <c r="E30" s="11">
+        <v>124.4</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>1.0982552800734617</v>
+        <f t="shared" si="1"/>
+        <v>1.1423324150596879</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2">
         <v>106.2</v>
       </c>
-      <c r="E31" s="2">
-        <v>117.1</v>
+      <c r="E31" s="11">
+        <v>123.4</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>1.1026365348399245</v>
+        <f t="shared" si="1"/>
+        <v>1.1619585687382297</v>
       </c>
     </row>
   </sheetData>

--- a/Prix_metre/dataset_inflation_retravaillé.xlsx
+++ b/Prix_metre/dataset_inflation_retravaillé.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maila\Documents\Centrale Nantes\EI2\INFOIA\STASC\Data_Challenge\STASC\Prix_metre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3957C0C-0D11-440B-9079-87FE64E46BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06AB773-672C-438A-BC01-AC8BFD0D3D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A3F74DC-D605-4B64-88B0-B13BA782DA19}"/>
   </bookViews>
@@ -198,19 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165347D6-084C-4A64-B7B9-A0F2591BBD01}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,12 +563,12 @@
       <c r="D2" s="2">
         <v>129.30000000000001</v>
       </c>
-      <c r="E2" s="3">
-        <v>133.30000000000001</v>
+      <c r="E2" s="2">
+        <v>133.80000000000001</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2:F26" si="0">E2/D2</f>
-        <v>1.0309358081979891</v>
+        <v>1.0348027842227379</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -593,12 +584,12 @@
       <c r="D3" s="2">
         <v>103.4</v>
       </c>
-      <c r="E3" s="3">
-        <v>112.7</v>
+      <c r="E3" s="2">
+        <v>110.4</v>
       </c>
       <c r="F3">
         <f>E3/D3</f>
-        <v>1.0899419729206963</v>
+        <v>1.067698259187621</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -614,12 +605,12 @@
       <c r="D4" s="2">
         <v>108.3</v>
       </c>
-      <c r="E4" s="3">
-        <v>116.5</v>
+      <c r="E4" s="2">
+        <v>115.7</v>
       </c>
       <c r="F4">
         <f>E4/D4</f>
-        <v>1.0757156048014773</v>
+        <v>1.0683287165281625</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -635,12 +626,12 @@
       <c r="D5" s="2">
         <v>104.3</v>
       </c>
-      <c r="E5" s="3">
-        <v>113.8</v>
+      <c r="E5" s="2">
+        <v>111.7</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>1.0910834132310643</v>
+        <v>1.0709491850431447</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -656,12 +647,12 @@
       <c r="D6" s="2">
         <v>118.2</v>
       </c>
-      <c r="E6" s="3">
-        <v>127</v>
+      <c r="E6" s="2">
+        <v>127.7</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>1.0744500846023688</v>
+        <v>1.0803722504230118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -677,12 +668,12 @@
       <c r="D7" s="2">
         <v>116.9</v>
       </c>
-      <c r="E7" s="3">
-        <v>129.4</v>
+      <c r="E7" s="2">
+        <v>128</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>1.1069289991445681</v>
+        <v>1.0949529512403764</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -698,12 +689,12 @@
       <c r="D8" s="2">
         <v>114.6</v>
       </c>
-      <c r="E8" s="3">
-        <v>126</v>
+      <c r="E8" s="2">
+        <v>124.8</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>1.0994764397905761</v>
+        <v>1.0890052356020943</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -719,12 +710,12 @@
       <c r="D9" s="2">
         <v>105.2</v>
       </c>
-      <c r="E9" s="4">
-        <v>115</v>
+      <c r="E9" s="2">
+        <v>113</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1.0931558935361216</v>
+        <v>1.0741444866920151</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -740,12 +731,12 @@
       <c r="D10" s="2">
         <v>105</v>
       </c>
-      <c r="E10" s="5">
-        <v>119.3</v>
+      <c r="E10" s="2">
+        <v>114.7</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>1.1361904761904762</v>
+        <v>1.0923809523809525</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -761,12 +752,12 @@
       <c r="D11" s="2">
         <v>107.4</v>
       </c>
-      <c r="E11" s="5">
-        <v>122.8</v>
+      <c r="E11" s="2">
+        <v>115.5</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>1.1433891992551211</v>
+        <v>1.0754189944134078</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,12 +773,12 @@
       <c r="D12" s="2">
         <v>106.9</v>
       </c>
-      <c r="E12" s="5">
-        <v>120.8</v>
+      <c r="E12" s="2">
+        <v>115.5</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1.1300280636108513</v>
+        <v>1.0804490177736201</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,12 +794,12 @@
       <c r="D13" s="2">
         <v>113.5</v>
       </c>
-      <c r="E13" s="5">
-        <v>131.80000000000001</v>
+      <c r="E13" s="2">
+        <v>124.6</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>1.1612334801762116</v>
+        <v>1.0977973568281938</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -824,12 +815,12 @@
       <c r="D14" s="2">
         <v>109.5</v>
       </c>
-      <c r="E14" s="5">
-        <v>124</v>
+      <c r="E14" s="2">
+        <v>119.9</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>1.1324200913242009</v>
+        <v>1.0949771689497718</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -845,12 +836,12 @@
       <c r="D15" s="2">
         <v>110.9</v>
       </c>
-      <c r="E15" s="5">
-        <v>127.7</v>
+      <c r="E15" s="2">
+        <v>121.9</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>1.1514878268710549</v>
+        <v>1.0991884580703337</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,12 +857,12 @@
       <c r="D16" s="2">
         <v>106.9</v>
       </c>
-      <c r="E16" s="5">
-        <v>120.1</v>
+      <c r="E16" s="2">
+        <v>116.2</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>1.1234798877455565</v>
+        <v>1.0869971936389149</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -887,12 +878,12 @@
       <c r="D17" s="2">
         <v>106.1</v>
       </c>
-      <c r="E17" s="6">
-        <v>117.9</v>
+      <c r="E17" s="2">
+        <v>113.2</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>1.1112158341187559</v>
+        <v>1.0669180018850142</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -908,12 +899,12 @@
       <c r="D18" s="2">
         <v>109.1</v>
       </c>
-      <c r="E18" s="6">
-        <v>125.3</v>
+      <c r="E18" s="2">
+        <v>118.2</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>1.1484876260311641</v>
+        <v>1.083409715857012</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -926,12 +917,12 @@
       <c r="D19" s="2">
         <v>108.7</v>
       </c>
-      <c r="E19" s="7">
-        <v>125</v>
+      <c r="E19" s="2">
+        <v>119.3</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>1.1499540018399264</v>
+        <v>1.0975160993560258</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -947,12 +938,12 @@
       <c r="D20" s="2">
         <v>114.8</v>
       </c>
-      <c r="E20" s="8">
-        <v>131</v>
+      <c r="E20" s="2">
+        <v>127.9</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>1.1411149825783973</v>
+        <v>1.1141114982578397</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -968,12 +959,12 @@
       <c r="D21" s="2">
         <v>112.7</v>
       </c>
-      <c r="E21" s="8">
-        <v>132.4</v>
+      <c r="E21" s="2">
+        <v>123.5</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>1.1748003549245785</v>
+        <v>1.095829636202307</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -986,12 +977,12 @@
       <c r="D22" s="2">
         <v>137.6</v>
       </c>
-      <c r="E22" s="8">
-        <v>153.1</v>
+      <c r="E22" s="2">
+        <v>153.69999999999999</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>1.1126453488372092</v>
+        <v>1.1170058139534884</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1007,12 +998,12 @@
       <c r="D23" s="2">
         <v>106</v>
       </c>
-      <c r="E23" s="9">
-        <v>123</v>
+      <c r="E23" s="2">
+        <v>117.7</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>1.1603773584905661</v>
+        <v>1.1103773584905661</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1028,12 +1019,12 @@
       <c r="D24" s="2">
         <v>106.6</v>
       </c>
-      <c r="E24" s="9">
-        <v>119.6</v>
+      <c r="E24" s="2">
+        <v>116</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>1.1219512195121952</v>
+        <v>1.0881801125703565</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1046,12 +1037,12 @@
       <c r="D25" s="2">
         <v>111</v>
       </c>
-      <c r="E25" s="9">
-        <v>126.7</v>
+      <c r="E25" s="2">
+        <v>124.3</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>1.1414414414414416</v>
+        <v>1.1198198198198197</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1064,12 +1055,12 @@
       <c r="D26" s="2">
         <v>111.3</v>
       </c>
-      <c r="E26" s="10">
-        <v>128.5</v>
+      <c r="E26" s="2">
+        <v>123.1</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>1.1545372866127583</v>
+        <v>1.106019766397125</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1082,12 +1073,12 @@
       <c r="D27" s="2">
         <v>110.8</v>
       </c>
-      <c r="E27" s="10">
-        <v>128.9</v>
+      <c r="E27" s="2">
+        <v>122</v>
       </c>
       <c r="F27">
         <f t="shared" ref="F27:F31" si="1">E27/D27</f>
-        <v>1.1633574007220218</v>
+        <v>1.1010830324909748</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1100,12 +1091,12 @@
       <c r="D28" s="2">
         <v>111.9</v>
       </c>
-      <c r="E28" s="11">
-        <v>129</v>
+      <c r="E28" s="2">
+        <v>123.7</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>1.1528150134048256</v>
+        <v>1.1054512957998213</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1118,12 +1109,12 @@
       <c r="D29" s="2">
         <v>113.5</v>
       </c>
-      <c r="E29" s="11">
-        <v>131.80000000000001</v>
+      <c r="E29" s="2">
+        <v>126.1</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>1.1612334801762116</v>
+        <v>1.1110132158590307</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1136,12 +1127,12 @@
       <c r="D30" s="2">
         <v>108.9</v>
       </c>
-      <c r="E30" s="11">
-        <v>124.4</v>
+      <c r="E30" s="2">
+        <v>119.6</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>1.1423324150596879</v>
+        <v>1.0982552800734617</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1154,12 +1145,12 @@
       <c r="D31" s="2">
         <v>106.2</v>
       </c>
-      <c r="E31" s="11">
-        <v>123.4</v>
+      <c r="E31" s="2">
+        <v>117.1</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>1.1619585687382297</v>
+        <v>1.1026365348399245</v>
       </c>
     </row>
   </sheetData>
